--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -488,11 +488,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation　Observationのためのビジネス識別子</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.
-このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID。</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -521,11 +517,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order　実施されるプラン、提案、依頼</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
-このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
   </si>
   <si>
     <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -551,11 +543,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event　参照されるイベントの一部分</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -574,10 +565,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>登録|予備|ファイナル|修正 + / registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.　結果の状態。</t>
+    <t>結果の状態。【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -618,11 +609,10 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.
-このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード。</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
@@ -648,11 +638,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)　observation のタイプ（コードまたはタイプ）</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".
-このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード。</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -696,11 +685,10 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about　観察対象者</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
-このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -729,11 +717,10 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -754,11 +741,10 @@
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made　このobservationが行われるヘルスケアイベント</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -791,11 +777,10 @@
 PeriodTiminginstant</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -824,11 +809,10 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available　このバージョンが利用可能となった日時</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -851,11 +835,10 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation　observationに責任をもつ者</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".
-そのobservationは真だと言える責任者</t>
+    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -884,11 +867,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual result　実際の結果値</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.
-結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+    <t>取得された結果。</t>
   </si>
   <si>
     <t>観察にはあります。1）ここでの単一の値、2）関連する値とコンポーネント値のセット、または3）関連またはコンポーネント値のセットのみ。値が存在する場合、この要素のデータ型は、viscervation.codeによって決定する必要があります。フィールドが通常コーディングされている場合、または観測に関連付けられたタイプの場合、文字列の代わりにテキストのみを持つCodeableconecteが使用されます。コードはコード化された値を定義します。追加のガイダンスについては、以下の[[メモ]セクション]（[観察.html＃注）を参照してください。 / An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -916,11 +895,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing　結果が欠損値である理由</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
-Observation.value[x] 要素に期待される結果が存在しない理由を設定する。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -954,11 +932,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常など。 / High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.
-観測値のカテゴリ別評価。たとえば、高、低、通常。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -994,11 +971,10 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation　結果に対するコメント</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.
-観測値、結果に対するコメント</t>
+    <t>このObservationに関するコメント。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント。</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1018,10 +994,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
-  </si>
-  <si>
-    <t>観察が行われた被験者の本体のサイト（つまり、ターゲットサイト）を示します。 / Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+    <t>対象となった身体部位。</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1050,7 +1023,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>観察を実行するために使用されるメカニズムを示します。 / Indicates the mechanism used to perform the observation.</t>
+    <t>このObservationの実施方法。</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1078,11 +1051,10 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation　観察（観測、検査）に使われた検体材料</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.
-この観察（観測、検査）が実施されたときに使われた検体材料</t>
+    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報。</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1108,11 +1080,10 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device　測定機器</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.
-観察データを生成するために使われた機器</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1138,10 +1109,10 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation　解釈のためのガイドを与える</t>
-  </si>
-  <si>
-    <t>通常または推奨範囲と比較して、値を解釈する方法に関するガイダンス。複数の参照範囲は「または」として解釈されます。言い換えれば、2つの異なるターゲット集団を表すために、2つの「参照」要素が使用されます。 / Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1335,11 +1306,10 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group　observationグループに属する関連リソース</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1359,11 +1329,10 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
-  </si>
-  <si>
-    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
-このobservation が導出される元の測定値を表すターゲットリソース。たとえば、超音波画像に基づいて計算されたアニオンギャップまたは胎児の測定値の場合、この要素には、元となった超音波画像検査結果への参照を設定する。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1376,11 +1345,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
-一部の観測には、複数のコンポーネントの観測がある。これらのコンポーネントの観察結果は、同じ属性を共有する個別のコード値のペアとして表される。例としては、血圧測定のための収縮期および拡張期のコンポーネントの観察や、遺伝学の観察のための複数のコンポーネントの観察がある。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
@@ -1452,6 +1420,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>高、低、正常など。 / High, low, normal, etc.</t>
   </si>
   <si>
     <t>観測値のカテゴリー評価。たとえば、高、低、正常。 / A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -3076,11 +3047,11 @@
         <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3144,19 +3115,19 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
@@ -3164,14 +3135,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3190,17 +3161,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3249,7 +3220,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3264,16 +3235,16 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3284,14 +3255,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3310,16 +3281,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3369,7 +3340,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3384,16 +3355,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3404,10 +3375,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3433,16 +3404,16 @@
         <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3467,14 +3438,14 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3491,7 +3462,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>93</v>
@@ -3506,19 +3477,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3526,10 +3497,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3552,19 +3523,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3593,7 +3564,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -3611,7 +3582,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3635,10 +3606,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3646,14 +3617,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3672,19 +3643,19 @@
         <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3709,14 +3680,14 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
@@ -3733,7 +3704,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>93</v>
@@ -3748,30 +3719,30 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3794,19 +3765,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3855,7 +3826,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3870,19 +3841,19 @@
         <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3890,10 +3861,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3916,16 +3887,16 @@
         <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3975,7 +3946,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3996,13 +3967,13 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4010,14 +3981,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4036,19 +4007,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4097,7 +4068,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4112,19 +4083,19 @@
         <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4132,14 +4103,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4158,19 +4129,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4219,7 +4190,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4234,19 +4205,19 @@
         <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4254,10 +4225,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4280,16 +4251,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4339,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4360,13 +4331,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4374,10 +4345,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4400,19 +4371,19 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4461,7 +4432,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4476,19 +4447,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4496,10 +4467,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4522,19 +4493,19 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4583,7 +4554,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4592,7 +4563,7 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>105</v>
@@ -4601,27 +4572,27 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4644,19 +4615,19 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4681,13 +4652,13 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -4705,7 +4676,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4714,7 +4685,7 @@
         <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>105</v>
@@ -4729,7 +4700,7 @@
         <v>136</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4740,14 +4711,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4766,19 +4737,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4803,13 +4774,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4827,7 +4798,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4845,27 +4816,27 @@
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4888,19 +4859,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -4949,7 +4920,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4970,10 +4941,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -4984,10 +4955,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5010,16 +4981,16 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5045,13 +5016,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5069,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5087,27 +5058,27 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5130,19 +5101,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5167,13 +5138,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5191,7 +5162,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5212,10 +5183,10 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5226,10 +5197,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5252,16 +5223,16 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5311,7 +5282,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5329,27 +5300,27 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5372,16 +5343,16 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5431,7 +5402,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5449,27 +5420,27 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5492,19 +5463,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5553,7 +5524,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5565,7 +5536,7 @@
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -5574,10 +5545,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5588,10 +5559,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5614,13 +5585,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5671,7 +5642,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5695,7 +5666,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5706,10 +5677,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5738,7 +5709,7 @@
         <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>142</v>
@@ -5791,7 +5762,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5815,7 +5786,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5826,14 +5797,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5855,10 +5826,10 @@
         <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>142</v>
@@ -5913,7 +5884,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5948,10 +5919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5974,13 +5945,13 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6031,7 +6002,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6040,7 +6011,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6052,10 +6023,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6066,10 +6037,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6092,13 +6063,13 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6149,7 +6120,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6158,7 +6129,7 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6170,10 +6141,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6184,10 +6155,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6210,19 +6181,19 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6250,10 +6221,10 @@
         <v>117</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6271,7 +6242,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6289,13 +6260,13 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6306,10 +6277,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6332,19 +6303,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6369,13 +6340,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6393,7 +6364,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6411,13 +6382,13 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6428,10 +6399,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6454,17 +6425,17 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6513,7 +6484,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6537,7 +6508,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6548,10 +6519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6574,13 +6545,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6631,7 +6602,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6652,10 +6623,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6666,10 +6637,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6692,16 +6663,16 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6751,7 +6722,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6772,10 +6743,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6786,10 +6757,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6812,16 +6783,16 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6871,7 +6842,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6892,10 +6863,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6906,10 +6877,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6932,19 +6903,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -6993,7 +6964,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7014,10 +6985,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7028,10 +6999,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7054,13 +7025,13 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7111,7 +7082,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7135,7 +7106,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7146,10 +7117,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7178,7 +7149,7 @@
         <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>142</v>
@@ -7231,7 +7202,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7255,7 +7226,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7266,14 +7237,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7295,10 +7266,10 @@
         <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>142</v>
@@ -7353,7 +7324,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7388,10 +7359,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7414,19 +7385,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7451,14 +7422,14 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7475,7 +7446,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>93</v>
@@ -7493,16 +7464,16 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -7510,10 +7481,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7536,19 +7507,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7597,7 +7568,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7615,27 +7586,27 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7658,19 +7629,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7695,13 +7666,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7719,7 +7690,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7728,7 +7699,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7743,7 +7714,7 @@
         <v>136</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7754,14 +7725,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7780,19 +7751,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7817,13 +7788,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7841,7 +7812,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7859,27 +7830,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7905,16 +7876,16 @@
         <v>84</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -7963,7 +7934,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7984,10 +7955,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-common.xlsx
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
   </si>
   <si>
     <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -543,10 +543,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -565,10 +565,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態。【詳細参照】</t>
-  </si>
-  <si>
-    <t>結果の状態。</t>
+    <t>結果の状態【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -609,10 +609,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
@@ -638,10 +638,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -685,10 +685,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -717,10 +717,10 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -741,10 +741,10 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -777,10 +777,10 @@
 PeriodTiminginstant</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>取得された結果が臨床的に確定された日時または期間。</t>
+    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -809,10 +809,10 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -835,10 +835,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの責任者/実施者に関する情報。</t>
+    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -867,7 +867,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>取得された結果。</t>
+    <t>取得された結果</t>
   </si>
   <si>
     <t>観察にはあります。1）ここでの単一の値、2）関連する値とコンポーネント値のセット、または3）関連またはコンポーネント値のセットのみ。値が存在する場合、この要素のデータ型は、viscervation.codeによって決定する必要があります。フィールドが通常コーディングされている場合、または観測に関連付けられたタイプの場合、文字列の代わりにテキストのみを持つCodeableconecteが使用されます。コードはコード化された値を定義します。追加のガイダンスについては、以下の[[メモ]セクション]（[観察.html＃注）を参照してください。 / An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -895,10 +895,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -932,10 +932,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
-  </si>
-  <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -971,10 +971,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント。</t>
+    <t>このObservationに関するコメント【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -994,7 +994,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>対象となった身体部位。</t>
+    <t>対象となった身体部位</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1023,7 +1023,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>このObservationの実施方法。</t>
+    <t>このObservationの実施方法</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1051,10 +1051,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに使われた検体/標本に関する情報。</t>
+    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1080,10 +1080,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1109,10 +1109,10 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1306,10 +1306,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1329,10 +1329,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1345,10 +1345,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
